--- a/TR/PYTHON/IA.xlsx
+++ b/TR/PYTHON/IA.xlsx
@@ -7,6 +7,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="datos.txt" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="datos.txt1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="PY_Població-50_Inputs-0,1,2_Mutacions-1_0.txt" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="datos.txt2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="P-50_I-0,1,2_M-1_0.txt" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -121,6 +126,1294 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ca-ES" b="0">
+                <effectLst/>
+              </a:rPr>
+              <a:t>PY_Població-50_Inputs-[0,1,2]_Mutacions-[1]_0</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t>None</a:t>
+          </a:r>
+          <a:endParaRPr lang="ca-ES"/>
+        </a:p>
+      </txPr>
+    </title>
+    <plotArea>
+      <layout/>
+      <scatterChart>
+        <scatterStyle val="lineMarker"/>
+        <varyColors val="0"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="circle"/>
+            <size val="6"/>
+            <spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <scene3d>
+                <camera prst="orthographicFront">
+                  <rot lat="0" lon="0" rev="0"/>
+                </camera>
+                <lightRig rig="threePt" dir="t">
+                  <rot lat="0" lon="0" rev="1200000"/>
+                </lightRig>
+              </scene3d>
+              <a:sp3d>
+                <bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </spPr>
+          </marker>
+          <trendline>
+            <spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+            <trendlineType val="log"/>
+            <dispRSqr val="1"/>
+            <dispEq val="1"/>
+            <trendlineLbl>
+              <layout>
+                <manualLayout>
+                  <wMode val="factor"/>
+                  <hMode val="factor"/>
+                  <x val="-0.02284464126725647"/>
+                  <y val="0.7401251956181534"/>
+                </manualLayout>
+              </layout>
+              <numFmt formatCode="General" sourceLinked="0"/>
+              <spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                  <a:prstDash val="solid"/>
+                </a:ln>
+              </spPr>
+              <txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:r>
+                    <a:t>None</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="ca-ES"/>
+                </a:p>
+              </txPr>
+            </trendlineLbl>
+          </trendline>
+          <xVal>
+            <numRef>
+              <f>Sheet!$A$1:$A$125</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="125"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+                <pt idx="16">
+                  <v>17</v>
+                </pt>
+                <pt idx="17">
+                  <v>18</v>
+                </pt>
+                <pt idx="18">
+                  <v>19</v>
+                </pt>
+                <pt idx="19">
+                  <v>20</v>
+                </pt>
+                <pt idx="20">
+                  <v>21</v>
+                </pt>
+                <pt idx="21">
+                  <v>22</v>
+                </pt>
+                <pt idx="22">
+                  <v>23</v>
+                </pt>
+                <pt idx="23">
+                  <v>24</v>
+                </pt>
+                <pt idx="24">
+                  <v>25</v>
+                </pt>
+                <pt idx="25">
+                  <v>26</v>
+                </pt>
+                <pt idx="26">
+                  <v>27</v>
+                </pt>
+                <pt idx="27">
+                  <v>28</v>
+                </pt>
+                <pt idx="28">
+                  <v>29</v>
+                </pt>
+                <pt idx="29">
+                  <v>30</v>
+                </pt>
+                <pt idx="30">
+                  <v>31</v>
+                </pt>
+                <pt idx="31">
+                  <v>32</v>
+                </pt>
+                <pt idx="32">
+                  <v>33</v>
+                </pt>
+                <pt idx="33">
+                  <v>34</v>
+                </pt>
+                <pt idx="34">
+                  <v>35</v>
+                </pt>
+                <pt idx="35">
+                  <v>36</v>
+                </pt>
+                <pt idx="36">
+                  <v>37</v>
+                </pt>
+                <pt idx="37">
+                  <v>38</v>
+                </pt>
+                <pt idx="38">
+                  <v>39</v>
+                </pt>
+                <pt idx="39">
+                  <v>40</v>
+                </pt>
+                <pt idx="40">
+                  <v>41</v>
+                </pt>
+                <pt idx="41">
+                  <v>42</v>
+                </pt>
+                <pt idx="42">
+                  <v>43</v>
+                </pt>
+                <pt idx="43">
+                  <v>44</v>
+                </pt>
+                <pt idx="44">
+                  <v>45</v>
+                </pt>
+                <pt idx="45">
+                  <v>46</v>
+                </pt>
+                <pt idx="46">
+                  <v>47</v>
+                </pt>
+                <pt idx="47">
+                  <v>48</v>
+                </pt>
+                <pt idx="48">
+                  <v>49</v>
+                </pt>
+                <pt idx="49">
+                  <v>50</v>
+                </pt>
+                <pt idx="50">
+                  <v>51</v>
+                </pt>
+                <pt idx="51">
+                  <v>52</v>
+                </pt>
+                <pt idx="52">
+                  <v>53</v>
+                </pt>
+                <pt idx="53">
+                  <v>54</v>
+                </pt>
+                <pt idx="54">
+                  <v>55</v>
+                </pt>
+                <pt idx="55">
+                  <v>56</v>
+                </pt>
+                <pt idx="56">
+                  <v>57</v>
+                </pt>
+                <pt idx="57">
+                  <v>58</v>
+                </pt>
+                <pt idx="58">
+                  <v>59</v>
+                </pt>
+                <pt idx="59">
+                  <v>60</v>
+                </pt>
+                <pt idx="60">
+                  <v>61</v>
+                </pt>
+                <pt idx="61">
+                  <v>62</v>
+                </pt>
+                <pt idx="62">
+                  <v>63</v>
+                </pt>
+                <pt idx="63">
+                  <v>64</v>
+                </pt>
+                <pt idx="64">
+                  <v>65</v>
+                </pt>
+                <pt idx="65">
+                  <v>66</v>
+                </pt>
+                <pt idx="66">
+                  <v>67</v>
+                </pt>
+                <pt idx="67">
+                  <v>68</v>
+                </pt>
+                <pt idx="68">
+                  <v>69</v>
+                </pt>
+                <pt idx="69">
+                  <v>70</v>
+                </pt>
+                <pt idx="70">
+                  <v>71</v>
+                </pt>
+                <pt idx="71">
+                  <v>72</v>
+                </pt>
+                <pt idx="72">
+                  <v>73</v>
+                </pt>
+                <pt idx="73">
+                  <v>74</v>
+                </pt>
+                <pt idx="74">
+                  <v>75</v>
+                </pt>
+                <pt idx="75">
+                  <v>76</v>
+                </pt>
+                <pt idx="76">
+                  <v>77</v>
+                </pt>
+                <pt idx="77">
+                  <v>78</v>
+                </pt>
+                <pt idx="78">
+                  <v>79</v>
+                </pt>
+                <pt idx="79">
+                  <v>80</v>
+                </pt>
+                <pt idx="80">
+                  <v>81</v>
+                </pt>
+                <pt idx="81">
+                  <v>82</v>
+                </pt>
+                <pt idx="82">
+                  <v>83</v>
+                </pt>
+                <pt idx="83">
+                  <v>84</v>
+                </pt>
+                <pt idx="84">
+                  <v>85</v>
+                </pt>
+                <pt idx="85">
+                  <v>86</v>
+                </pt>
+                <pt idx="86">
+                  <v>87</v>
+                </pt>
+                <pt idx="87">
+                  <v>88</v>
+                </pt>
+                <pt idx="88">
+                  <v>89</v>
+                </pt>
+                <pt idx="89">
+                  <v>90</v>
+                </pt>
+                <pt idx="90">
+                  <v>91</v>
+                </pt>
+                <pt idx="91">
+                  <v>92</v>
+                </pt>
+                <pt idx="92">
+                  <v>93</v>
+                </pt>
+                <pt idx="93">
+                  <v>94</v>
+                </pt>
+                <pt idx="94">
+                  <v>95</v>
+                </pt>
+                <pt idx="95">
+                  <v>96</v>
+                </pt>
+                <pt idx="96">
+                  <v>97</v>
+                </pt>
+                <pt idx="97">
+                  <v>98</v>
+                </pt>
+                <pt idx="98">
+                  <v>99</v>
+                </pt>
+                <pt idx="99">
+                  <v>100</v>
+                </pt>
+                <pt idx="100">
+                  <v>101</v>
+                </pt>
+                <pt idx="101">
+                  <v>102</v>
+                </pt>
+                <pt idx="102">
+                  <v>103</v>
+                </pt>
+                <pt idx="103">
+                  <v>104</v>
+                </pt>
+                <pt idx="104">
+                  <v>105</v>
+                </pt>
+                <pt idx="105">
+                  <v>106</v>
+                </pt>
+                <pt idx="106">
+                  <v>107</v>
+                </pt>
+                <pt idx="107">
+                  <v>108</v>
+                </pt>
+                <pt idx="108">
+                  <v>109</v>
+                </pt>
+                <pt idx="109">
+                  <v>110</v>
+                </pt>
+                <pt idx="110">
+                  <v>111</v>
+                </pt>
+                <pt idx="111">
+                  <v>112</v>
+                </pt>
+                <pt idx="112">
+                  <v>113</v>
+                </pt>
+                <pt idx="113">
+                  <v>114</v>
+                </pt>
+                <pt idx="114">
+                  <v>115</v>
+                </pt>
+                <pt idx="115">
+                  <v>116</v>
+                </pt>
+                <pt idx="116">
+                  <v>117</v>
+                </pt>
+                <pt idx="117">
+                  <v>118</v>
+                </pt>
+                <pt idx="118">
+                  <v>119</v>
+                </pt>
+                <pt idx="119">
+                  <v>120</v>
+                </pt>
+                <pt idx="120">
+                  <v>121</v>
+                </pt>
+                <pt idx="121">
+                  <v>122</v>
+                </pt>
+                <pt idx="122">
+                  <v>123</v>
+                </pt>
+                <pt idx="123">
+                  <v>124</v>
+                </pt>
+                <pt idx="124">
+                  <v>125</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>Sheet!$B$1:$B$125</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="125"/>
+                <pt idx="0">
+                  <v>1893.84</v>
+                </pt>
+                <pt idx="1">
+                  <v>4514.25</v>
+                </pt>
+                <pt idx="2">
+                  <v>26071</v>
+                </pt>
+                <pt idx="3">
+                  <v>30080.66</v>
+                </pt>
+                <pt idx="4">
+                  <v>58866</v>
+                </pt>
+                <pt idx="5">
+                  <v>42952.4</v>
+                </pt>
+                <pt idx="6">
+                  <v>67103.35000000001</v>
+                </pt>
+                <pt idx="7">
+                  <v>75432.5</v>
+                </pt>
+                <pt idx="8">
+                  <v>65156.06</v>
+                </pt>
+                <pt idx="9">
+                  <v>78624.87</v>
+                </pt>
+                <pt idx="10">
+                  <v>92525.10000000001</v>
+                </pt>
+                <pt idx="11">
+                  <v>79348.31</v>
+                </pt>
+                <pt idx="12">
+                  <v>79045.36</v>
+                </pt>
+                <pt idx="13">
+                  <v>87911.62</v>
+                </pt>
+                <pt idx="14">
+                  <v>86845</v>
+                </pt>
+                <pt idx="15">
+                  <v>88424.84</v>
+                </pt>
+                <pt idx="16">
+                  <v>86292.83</v>
+                </pt>
+                <pt idx="17">
+                  <v>93589.10000000001</v>
+                </pt>
+                <pt idx="18">
+                  <v>94233.24000000001</v>
+                </pt>
+                <pt idx="19">
+                  <v>87260.81</v>
+                </pt>
+                <pt idx="20">
+                  <v>85384.22</v>
+                </pt>
+                <pt idx="21">
+                  <v>83409.72</v>
+                </pt>
+                <pt idx="22">
+                  <v>92863.19</v>
+                </pt>
+                <pt idx="23">
+                  <v>88159.39</v>
+                </pt>
+                <pt idx="24">
+                  <v>90670.92</v>
+                </pt>
+                <pt idx="25">
+                  <v>92230.08</v>
+                </pt>
+                <pt idx="26">
+                  <v>83997.8</v>
+                </pt>
+                <pt idx="27">
+                  <v>86621.96000000001</v>
+                </pt>
+                <pt idx="28">
+                  <v>91475.67999999999</v>
+                </pt>
+                <pt idx="29">
+                  <v>84095.88</v>
+                </pt>
+                <pt idx="30">
+                  <v>93765.56</v>
+                </pt>
+                <pt idx="31">
+                  <v>99015.17999999999</v>
+                </pt>
+                <pt idx="32">
+                  <v>98075.27</v>
+                </pt>
+                <pt idx="33">
+                  <v>106733.64</v>
+                </pt>
+                <pt idx="34">
+                  <v>105073.75</v>
+                </pt>
+                <pt idx="35">
+                  <v>96131.42999999999</v>
+                </pt>
+                <pt idx="36">
+                  <v>101649.99</v>
+                </pt>
+                <pt idx="37">
+                  <v>99291.27</v>
+                </pt>
+                <pt idx="38">
+                  <v>102444.31</v>
+                </pt>
+                <pt idx="39">
+                  <v>101141.18</v>
+                </pt>
+                <pt idx="40">
+                  <v>100260.25</v>
+                </pt>
+                <pt idx="41">
+                  <v>98543.86</v>
+                </pt>
+                <pt idx="42">
+                  <v>96190.89999999999</v>
+                </pt>
+                <pt idx="43">
+                  <v>99486.00999999999</v>
+                </pt>
+                <pt idx="44">
+                  <v>96466.56</v>
+                </pt>
+                <pt idx="45">
+                  <v>102159.37</v>
+                </pt>
+                <pt idx="46">
+                  <v>106678.53</v>
+                </pt>
+                <pt idx="47">
+                  <v>104923.88</v>
+                </pt>
+                <pt idx="48">
+                  <v>96649.45</v>
+                </pt>
+                <pt idx="49">
+                  <v>101985.19</v>
+                </pt>
+                <pt idx="50">
+                  <v>97342.19</v>
+                </pt>
+                <pt idx="51">
+                  <v>102352.6</v>
+                </pt>
+                <pt idx="52">
+                  <v>106156.5</v>
+                </pt>
+                <pt idx="53">
+                  <v>107271.34</v>
+                </pt>
+                <pt idx="54">
+                  <v>106703.11</v>
+                </pt>
+                <pt idx="55">
+                  <v>114309.35</v>
+                </pt>
+                <pt idx="56">
+                  <v>112174.76</v>
+                </pt>
+                <pt idx="57">
+                  <v>113527.25</v>
+                </pt>
+                <pt idx="58">
+                  <v>118827.84</v>
+                </pt>
+                <pt idx="59">
+                  <v>120047.74</v>
+                </pt>
+                <pt idx="60">
+                  <v>105548.24</v>
+                </pt>
+                <pt idx="61">
+                  <v>108423.23</v>
+                </pt>
+                <pt idx="62">
+                  <v>124128.39</v>
+                </pt>
+                <pt idx="63">
+                  <v>113064.36</v>
+                </pt>
+                <pt idx="64">
+                  <v>110338.35</v>
+                </pt>
+                <pt idx="65">
+                  <v>117724.63</v>
+                </pt>
+                <pt idx="66">
+                  <v>118559.01</v>
+                </pt>
+                <pt idx="67">
+                  <v>124583.28</v>
+                </pt>
+                <pt idx="68">
+                  <v>116653.8</v>
+                </pt>
+                <pt idx="69">
+                  <v>123349.86</v>
+                </pt>
+                <pt idx="70">
+                  <v>117500.61</v>
+                </pt>
+                <pt idx="71">
+                  <v>111259.71</v>
+                </pt>
+                <pt idx="72">
+                  <v>114091.24</v>
+                </pt>
+                <pt idx="73">
+                  <v>113265.72</v>
+                </pt>
+                <pt idx="74">
+                  <v>110718.78</v>
+                </pt>
+                <pt idx="75">
+                  <v>114549.31</v>
+                </pt>
+                <pt idx="76">
+                  <v>111101.19</v>
+                </pt>
+                <pt idx="77">
+                  <v>113605.75</v>
+                </pt>
+                <pt idx="78">
+                  <v>109909.81</v>
+                </pt>
+                <pt idx="79">
+                  <v>115067.67</v>
+                </pt>
+                <pt idx="80">
+                  <v>110716.14</v>
+                </pt>
+                <pt idx="81">
+                  <v>113908.41</v>
+                </pt>
+                <pt idx="82">
+                  <v>123778.47</v>
+                </pt>
+                <pt idx="83">
+                  <v>124008.29</v>
+                </pt>
+                <pt idx="84">
+                  <v>117672.92</v>
+                </pt>
+                <pt idx="85">
+                  <v>126454.93</v>
+                </pt>
+                <pt idx="86">
+                  <v>115953.61</v>
+                </pt>
+                <pt idx="87">
+                  <v>117395.84</v>
+                </pt>
+                <pt idx="88">
+                  <v>119411.95</v>
+                </pt>
+                <pt idx="89">
+                  <v>123661.69</v>
+                </pt>
+                <pt idx="90">
+                  <v>124194.62</v>
+                </pt>
+                <pt idx="91">
+                  <v>129300.92</v>
+                </pt>
+                <pt idx="92">
+                  <v>128799.29</v>
+                </pt>
+                <pt idx="93">
+                  <v>127799.25</v>
+                </pt>
+                <pt idx="94">
+                  <v>126811.21</v>
+                </pt>
+                <pt idx="95">
+                  <v>129572.47</v>
+                </pt>
+                <pt idx="96">
+                  <v>125163.26</v>
+                </pt>
+                <pt idx="97">
+                  <v>128940.34</v>
+                </pt>
+                <pt idx="98">
+                  <v>126331.64</v>
+                </pt>
+                <pt idx="99">
+                  <v>125912.78</v>
+                </pt>
+                <pt idx="100">
+                  <v>124445.79</v>
+                </pt>
+                <pt idx="101">
+                  <v>127752.78</v>
+                </pt>
+                <pt idx="102">
+                  <v>127937.83</v>
+                </pt>
+                <pt idx="103">
+                  <v>126506.26</v>
+                </pt>
+                <pt idx="104">
+                  <v>128676.63</v>
+                </pt>
+                <pt idx="105">
+                  <v>132861.77</v>
+                </pt>
+                <pt idx="106">
+                  <v>132572.22</v>
+                </pt>
+                <pt idx="107">
+                  <v>128750.61</v>
+                </pt>
+                <pt idx="108">
+                  <v>125971.85</v>
+                </pt>
+                <pt idx="109">
+                  <v>131425.13</v>
+                </pt>
+                <pt idx="110">
+                  <v>124709.88</v>
+                </pt>
+                <pt idx="111">
+                  <v>128775.8</v>
+                </pt>
+                <pt idx="112">
+                  <v>125208.59</v>
+                </pt>
+                <pt idx="113">
+                  <v>126739.55</v>
+                </pt>
+                <pt idx="114">
+                  <v>130915.91</v>
+                </pt>
+                <pt idx="115">
+                  <v>125420.04</v>
+                </pt>
+                <pt idx="116">
+                  <v>125691.06</v>
+                </pt>
+                <pt idx="117">
+                  <v>124824.25</v>
+                </pt>
+                <pt idx="118">
+                  <v>124877</v>
+                </pt>
+                <pt idx="119">
+                  <v>127873.62</v>
+                </pt>
+                <pt idx="120">
+                  <v>125416.44</v>
+                </pt>
+                <pt idx="121">
+                  <v>126279.11</v>
+                </pt>
+                <pt idx="122">
+                  <v>126186.5</v>
+                </pt>
+                <pt idx="123">
+                  <v>127228.67</v>
+                </pt>
+                <pt idx="124">
+                  <v>128275.06</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <axId val="1169440176"/>
+        <axId val="1169438256"/>
+      </scatterChart>
+      <valAx>
+        <axId val="1169440176"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="b"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ca-ES"/>
+                  <a:t>Gen</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="0"/>
+          <spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:t>None</a:t>
+              </a:r>
+              <a:endParaRPr lang="ca-ES"/>
+            </a:p>
+          </txPr>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="ca-ES"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1169438256"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+      <valAx>
+        <axId val="1169438256"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorGridlines>
+          <spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </spPr>
+        </majorGridlines>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ca-ES"/>
+                  <a:t>Fitness</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="0"/>
+          <spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:r>
+                <a:t>None</a:t>
+              </a:r>
+              <a:endParaRPr lang="ca-ES"/>
+            </a:p>
+          </txPr>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </spPr>
+        <txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>None</a:t>
+            </a:r>
+            <a:endParaRPr lang="ca-ES"/>
+          </a:p>
+        </txPr>
+        <crossAx val="1169440176"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="midCat"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+      <overlay val="0"/>
+      <spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+      <txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:t>None</a:t>
+          </a:r>
+          <a:endParaRPr lang="ca-ES"/>
+        </a:p>
+      </txPr>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+  <spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+  </spPr>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <twoCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>228599</colOff>
+      <row>7</row>
+      <rowOff>57150</rowOff>
+    </from>
+    <to>
+      <col>15</col>
+      <colOff>466724</colOff>
+      <row>28</row>
+      <rowOff>114300</rowOff>
+    </to>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </twoCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,15 +1700,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -425,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="n">
-        <v>782.33</v>
+        <v>1893.84</v>
       </c>
     </row>
     <row r="2">
@@ -433,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>763128.33</v>
+        <v>4514.25</v>
       </c>
     </row>
     <row r="3">
@@ -441,7 +1734,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>1358.5</v>
+        <v>26071</v>
       </c>
     </row>
     <row r="4">
@@ -449,7 +1742,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>40410.33</v>
+        <v>30080.66</v>
       </c>
     </row>
     <row r="5">
@@ -457,7 +1750,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>168.67</v>
+        <v>58866</v>
       </c>
     </row>
     <row r="6">
@@ -465,7 +1758,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>62.83</v>
+        <v>42952.4</v>
       </c>
     </row>
     <row r="7">
@@ -473,7 +1766,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>26.67</v>
+        <v>67103.35000000001</v>
       </c>
     </row>
     <row r="8">
@@ -481,7 +1774,4037 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>48.83</v>
+        <v>75432.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>65156.06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>78624.87</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>92525.10000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>79348.31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>79045.36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>87911.62</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>86845</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>88424.84</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>86292.83</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>93589.10000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>94233.24000000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
+        <v>87260.81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="n">
+        <v>85384.22</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="n">
+        <v>83409.72</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" t="n">
+        <v>92863.19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n">
+        <v>88159.39</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="n">
+        <v>90670.92</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" t="n">
+        <v>92230.08</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" t="n">
+        <v>83997.8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="n">
+        <v>86621.96000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" t="n">
+        <v>91475.67999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" t="n">
+        <v>84095.88</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" t="n">
+        <v>93765.56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32</v>
+      </c>
+      <c r="B32" t="n">
+        <v>99015.17999999999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" t="n">
+        <v>98075.27</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" t="n">
+        <v>106733.64</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35</v>
+      </c>
+      <c r="B35" t="n">
+        <v>105073.75</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36</v>
+      </c>
+      <c r="B36" t="n">
+        <v>96131.42999999999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37</v>
+      </c>
+      <c r="B37" t="n">
+        <v>101649.99</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38</v>
+      </c>
+      <c r="B38" t="n">
+        <v>99291.27</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39</v>
+      </c>
+      <c r="B39" t="n">
+        <v>102444.31</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>40</v>
+      </c>
+      <c r="B40" t="n">
+        <v>101141.18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41</v>
+      </c>
+      <c r="B41" t="n">
+        <v>100260.25</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42</v>
+      </c>
+      <c r="B42" t="n">
+        <v>98543.86</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>43</v>
+      </c>
+      <c r="B43" t="n">
+        <v>96190.89999999999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>44</v>
+      </c>
+      <c r="B44" t="n">
+        <v>99486.00999999999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>45</v>
+      </c>
+      <c r="B45" t="n">
+        <v>96466.56</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>46</v>
+      </c>
+      <c r="B46" t="n">
+        <v>102159.37</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>47</v>
+      </c>
+      <c r="B47" t="n">
+        <v>106678.53</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" t="n">
+        <v>104923.88</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>49</v>
+      </c>
+      <c r="B49" t="n">
+        <v>96649.45</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>50</v>
+      </c>
+      <c r="B50" t="n">
+        <v>101985.19</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>51</v>
+      </c>
+      <c r="B51" t="n">
+        <v>97342.19</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52</v>
+      </c>
+      <c r="B52" t="n">
+        <v>102352.6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53</v>
+      </c>
+      <c r="B53" t="n">
+        <v>106156.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54</v>
+      </c>
+      <c r="B54" t="n">
+        <v>107271.34</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>55</v>
+      </c>
+      <c r="B55" t="n">
+        <v>106703.11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56</v>
+      </c>
+      <c r="B56" t="n">
+        <v>114309.35</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>57</v>
+      </c>
+      <c r="B57" t="n">
+        <v>112174.76</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58</v>
+      </c>
+      <c r="B58" t="n">
+        <v>113527.25</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59</v>
+      </c>
+      <c r="B59" t="n">
+        <v>118827.84</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60</v>
+      </c>
+      <c r="B60" t="n">
+        <v>120047.74</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>61</v>
+      </c>
+      <c r="B61" t="n">
+        <v>105548.24</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>62</v>
+      </c>
+      <c r="B62" t="n">
+        <v>108423.23</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63</v>
+      </c>
+      <c r="B63" t="n">
+        <v>124128.39</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64</v>
+      </c>
+      <c r="B64" t="n">
+        <v>113064.36</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65</v>
+      </c>
+      <c r="B65" t="n">
+        <v>110338.35</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>66</v>
+      </c>
+      <c r="B66" t="n">
+        <v>117724.63</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>67</v>
+      </c>
+      <c r="B67" t="n">
+        <v>118559.01</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>68</v>
+      </c>
+      <c r="B68" t="n">
+        <v>124583.28</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>69</v>
+      </c>
+      <c r="B69" t="n">
+        <v>116653.8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>70</v>
+      </c>
+      <c r="B70" t="n">
+        <v>123349.86</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>71</v>
+      </c>
+      <c r="B71" t="n">
+        <v>117500.61</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>72</v>
+      </c>
+      <c r="B72" t="n">
+        <v>111259.71</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>73</v>
+      </c>
+      <c r="B73" t="n">
+        <v>114091.24</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>74</v>
+      </c>
+      <c r="B74" t="n">
+        <v>113265.72</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>75</v>
+      </c>
+      <c r="B75" t="n">
+        <v>110718.78</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>76</v>
+      </c>
+      <c r="B76" t="n">
+        <v>114549.31</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>77</v>
+      </c>
+      <c r="B77" t="n">
+        <v>111101.19</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>78</v>
+      </c>
+      <c r="B78" t="n">
+        <v>113605.75</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>79</v>
+      </c>
+      <c r="B79" t="n">
+        <v>109909.81</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>80</v>
+      </c>
+      <c r="B80" t="n">
+        <v>115067.67</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>81</v>
+      </c>
+      <c r="B81" t="n">
+        <v>110716.14</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>82</v>
+      </c>
+      <c r="B82" t="n">
+        <v>113908.41</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>83</v>
+      </c>
+      <c r="B83" t="n">
+        <v>123778.47</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>84</v>
+      </c>
+      <c r="B84" t="n">
+        <v>124008.29</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>85</v>
+      </c>
+      <c r="B85" t="n">
+        <v>117672.92</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>86</v>
+      </c>
+      <c r="B86" t="n">
+        <v>126454.93</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>87</v>
+      </c>
+      <c r="B87" t="n">
+        <v>115953.61</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>88</v>
+      </c>
+      <c r="B88" t="n">
+        <v>117395.84</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>89</v>
+      </c>
+      <c r="B89" t="n">
+        <v>119411.95</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>90</v>
+      </c>
+      <c r="B90" t="n">
+        <v>123661.69</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>91</v>
+      </c>
+      <c r="B91" t="n">
+        <v>124194.62</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>92</v>
+      </c>
+      <c r="B92" t="n">
+        <v>129300.92</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>93</v>
+      </c>
+      <c r="B93" t="n">
+        <v>128799.29</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>94</v>
+      </c>
+      <c r="B94" t="n">
+        <v>127799.25</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>95</v>
+      </c>
+      <c r="B95" t="n">
+        <v>126811.21</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>96</v>
+      </c>
+      <c r="B96" t="n">
+        <v>129572.47</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>97</v>
+      </c>
+      <c r="B97" t="n">
+        <v>125163.26</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>98</v>
+      </c>
+      <c r="B98" t="n">
+        <v>128940.34</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>99</v>
+      </c>
+      <c r="B99" t="n">
+        <v>126331.64</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>100</v>
+      </c>
+      <c r="B100" t="n">
+        <v>125912.78</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>101</v>
+      </c>
+      <c r="B101" t="n">
+        <v>124445.79</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>102</v>
+      </c>
+      <c r="B102" t="n">
+        <v>127752.78</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>103</v>
+      </c>
+      <c r="B103" t="n">
+        <v>127937.83</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>104</v>
+      </c>
+      <c r="B104" t="n">
+        <v>126506.26</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>105</v>
+      </c>
+      <c r="B105" t="n">
+        <v>128676.63</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>106</v>
+      </c>
+      <c r="B106" t="n">
+        <v>132861.77</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>107</v>
+      </c>
+      <c r="B107" t="n">
+        <v>132572.22</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>108</v>
+      </c>
+      <c r="B108" t="n">
+        <v>128750.61</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>109</v>
+      </c>
+      <c r="B109" t="n">
+        <v>125971.85</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>110</v>
+      </c>
+      <c r="B110" t="n">
+        <v>131425.13</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>111</v>
+      </c>
+      <c r="B111" t="n">
+        <v>124709.88</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>112</v>
+      </c>
+      <c r="B112" t="n">
+        <v>128775.8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>113</v>
+      </c>
+      <c r="B113" t="n">
+        <v>125208.59</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>114</v>
+      </c>
+      <c r="B114" t="n">
+        <v>126739.55</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>115</v>
+      </c>
+      <c r="B115" t="n">
+        <v>130915.91</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>116</v>
+      </c>
+      <c r="B116" t="n">
+        <v>125420.04</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>117</v>
+      </c>
+      <c r="B117" t="n">
+        <v>125691.06</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>118</v>
+      </c>
+      <c r="B118" t="n">
+        <v>124824.25</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>119</v>
+      </c>
+      <c r="B119" t="n">
+        <v>124877</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>120</v>
+      </c>
+      <c r="B120" t="n">
+        <v>127873.62</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>121</v>
+      </c>
+      <c r="B121" t="n">
+        <v>125416.44</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>122</v>
+      </c>
+      <c r="B122" t="n">
+        <v>126279.11</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>123</v>
+      </c>
+      <c r="B123" t="n">
+        <v>126186.5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>124</v>
+      </c>
+      <c r="B124" t="n">
+        <v>127228.67</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>125</v>
+      </c>
+      <c r="B125" t="n">
+        <v>128275.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B125"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>938.6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>915753.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1629.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>48491.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>201.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32</v>
+      </c>
+      <c r="B32" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35</v>
+      </c>
+      <c r="B35" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36</v>
+      </c>
+      <c r="B36" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37</v>
+      </c>
+      <c r="B37" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38</v>
+      </c>
+      <c r="B38" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39</v>
+      </c>
+      <c r="B39" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>40</v>
+      </c>
+      <c r="B40" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41</v>
+      </c>
+      <c r="B41" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42</v>
+      </c>
+      <c r="B42" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>43</v>
+      </c>
+      <c r="B43" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>44</v>
+      </c>
+      <c r="B44" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>45</v>
+      </c>
+      <c r="B45" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>46</v>
+      </c>
+      <c r="B46" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>47</v>
+      </c>
+      <c r="B47" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>49</v>
+      </c>
+      <c r="B49" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>50</v>
+      </c>
+      <c r="B50" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>51</v>
+      </c>
+      <c r="B51" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52</v>
+      </c>
+      <c r="B52" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53</v>
+      </c>
+      <c r="B53" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54</v>
+      </c>
+      <c r="B54" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>55</v>
+      </c>
+      <c r="B55" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56</v>
+      </c>
+      <c r="B56" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>57</v>
+      </c>
+      <c r="B57" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58</v>
+      </c>
+      <c r="B58" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59</v>
+      </c>
+      <c r="B59" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60</v>
+      </c>
+      <c r="B60" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>61</v>
+      </c>
+      <c r="B61" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>62</v>
+      </c>
+      <c r="B62" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63</v>
+      </c>
+      <c r="B63" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64</v>
+      </c>
+      <c r="B64" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65</v>
+      </c>
+      <c r="B65" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>66</v>
+      </c>
+      <c r="B66" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>67</v>
+      </c>
+      <c r="B67" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>68</v>
+      </c>
+      <c r="B68" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>69</v>
+      </c>
+      <c r="B69" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>70</v>
+      </c>
+      <c r="B70" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>71</v>
+      </c>
+      <c r="B71" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>72</v>
+      </c>
+      <c r="B72" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>73</v>
+      </c>
+      <c r="B73" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>74</v>
+      </c>
+      <c r="B74" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>75</v>
+      </c>
+      <c r="B75" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>76</v>
+      </c>
+      <c r="B76" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>77</v>
+      </c>
+      <c r="B77" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>78</v>
+      </c>
+      <c r="B78" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>79</v>
+      </c>
+      <c r="B79" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>80</v>
+      </c>
+      <c r="B80" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>81</v>
+      </c>
+      <c r="B81" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>82</v>
+      </c>
+      <c r="B82" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>83</v>
+      </c>
+      <c r="B83" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>84</v>
+      </c>
+      <c r="B84" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>85</v>
+      </c>
+      <c r="B85" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>86</v>
+      </c>
+      <c r="B86" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>87</v>
+      </c>
+      <c r="B87" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>88</v>
+      </c>
+      <c r="B88" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>89</v>
+      </c>
+      <c r="B89" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>90</v>
+      </c>
+      <c r="B90" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>91</v>
+      </c>
+      <c r="B91" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>92</v>
+      </c>
+      <c r="B92" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>93</v>
+      </c>
+      <c r="B93" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>94</v>
+      </c>
+      <c r="B94" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>95</v>
+      </c>
+      <c r="B95" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>96</v>
+      </c>
+      <c r="B96" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>97</v>
+      </c>
+      <c r="B97" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>98</v>
+      </c>
+      <c r="B98" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>99</v>
+      </c>
+      <c r="B99" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>100</v>
+      </c>
+      <c r="B100" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>101</v>
+      </c>
+      <c r="B101" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>102</v>
+      </c>
+      <c r="B102" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>103</v>
+      </c>
+      <c r="B103" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>104</v>
+      </c>
+      <c r="B104" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>105</v>
+      </c>
+      <c r="B105" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>106</v>
+      </c>
+      <c r="B106" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>107</v>
+      </c>
+      <c r="B107" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>108</v>
+      </c>
+      <c r="B108" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>109</v>
+      </c>
+      <c r="B109" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>110</v>
+      </c>
+      <c r="B110" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>111</v>
+      </c>
+      <c r="B111" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>112</v>
+      </c>
+      <c r="B112" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>113</v>
+      </c>
+      <c r="B113" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>114</v>
+      </c>
+      <c r="B114" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>115</v>
+      </c>
+      <c r="B115" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>116</v>
+      </c>
+      <c r="B116" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>117</v>
+      </c>
+      <c r="B117" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>118</v>
+      </c>
+      <c r="B118" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>119</v>
+      </c>
+      <c r="B119" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>120</v>
+      </c>
+      <c r="B120" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>121</v>
+      </c>
+      <c r="B121" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>122</v>
+      </c>
+      <c r="B122" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>123</v>
+      </c>
+      <c r="B123" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>124</v>
+      </c>
+      <c r="B124" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>125</v>
+      </c>
+      <c r="B125" t="n">
+        <v>915756</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B125"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>1893.84</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4514.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>26071</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30080.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>58866</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>42952.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>67103.35000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>75432.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>65156.06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>78624.87</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>92525.10000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>79348.31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>79045.36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>87911.62</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>86845</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>88424.84</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>86292.83</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>93589.10000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>94233.24000000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
+        <v>87260.81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="n">
+        <v>85384.22</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="n">
+        <v>83409.72</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" t="n">
+        <v>92863.19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n">
+        <v>88159.39</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="n">
+        <v>90670.92</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" t="n">
+        <v>92230.08</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" t="n">
+        <v>83997.8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="n">
+        <v>86621.96000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" t="n">
+        <v>91475.67999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" t="n">
+        <v>84095.88</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" t="n">
+        <v>93765.56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32</v>
+      </c>
+      <c r="B32" t="n">
+        <v>99015.17999999999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" t="n">
+        <v>98075.27</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" t="n">
+        <v>106733.64</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35</v>
+      </c>
+      <c r="B35" t="n">
+        <v>105073.75</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36</v>
+      </c>
+      <c r="B36" t="n">
+        <v>96131.42999999999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37</v>
+      </c>
+      <c r="B37" t="n">
+        <v>101649.99</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38</v>
+      </c>
+      <c r="B38" t="n">
+        <v>99291.27</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39</v>
+      </c>
+      <c r="B39" t="n">
+        <v>102444.31</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>40</v>
+      </c>
+      <c r="B40" t="n">
+        <v>101141.18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41</v>
+      </c>
+      <c r="B41" t="n">
+        <v>100260.25</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42</v>
+      </c>
+      <c r="B42" t="n">
+        <v>98543.86</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>43</v>
+      </c>
+      <c r="B43" t="n">
+        <v>96190.89999999999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>44</v>
+      </c>
+      <c r="B44" t="n">
+        <v>99486.00999999999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>45</v>
+      </c>
+      <c r="B45" t="n">
+        <v>96466.56</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>46</v>
+      </c>
+      <c r="B46" t="n">
+        <v>102159.37</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>47</v>
+      </c>
+      <c r="B47" t="n">
+        <v>106678.53</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" t="n">
+        <v>104923.88</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>49</v>
+      </c>
+      <c r="B49" t="n">
+        <v>96649.45</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>50</v>
+      </c>
+      <c r="B50" t="n">
+        <v>101985.19</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>51</v>
+      </c>
+      <c r="B51" t="n">
+        <v>97342.19</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52</v>
+      </c>
+      <c r="B52" t="n">
+        <v>102352.6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53</v>
+      </c>
+      <c r="B53" t="n">
+        <v>106156.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54</v>
+      </c>
+      <c r="B54" t="n">
+        <v>107271.34</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>55</v>
+      </c>
+      <c r="B55" t="n">
+        <v>106703.11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56</v>
+      </c>
+      <c r="B56" t="n">
+        <v>114309.35</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>57</v>
+      </c>
+      <c r="B57" t="n">
+        <v>112174.76</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58</v>
+      </c>
+      <c r="B58" t="n">
+        <v>113527.25</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59</v>
+      </c>
+      <c r="B59" t="n">
+        <v>118827.84</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60</v>
+      </c>
+      <c r="B60" t="n">
+        <v>120047.74</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>61</v>
+      </c>
+      <c r="B61" t="n">
+        <v>105548.24</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>62</v>
+      </c>
+      <c r="B62" t="n">
+        <v>108423.23</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63</v>
+      </c>
+      <c r="B63" t="n">
+        <v>124128.39</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64</v>
+      </c>
+      <c r="B64" t="n">
+        <v>113064.36</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65</v>
+      </c>
+      <c r="B65" t="n">
+        <v>110338.35</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>66</v>
+      </c>
+      <c r="B66" t="n">
+        <v>117724.63</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>67</v>
+      </c>
+      <c r="B67" t="n">
+        <v>118559.01</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>68</v>
+      </c>
+      <c r="B68" t="n">
+        <v>124583.28</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>69</v>
+      </c>
+      <c r="B69" t="n">
+        <v>116653.8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>70</v>
+      </c>
+      <c r="B70" t="n">
+        <v>123349.86</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>71</v>
+      </c>
+      <c r="B71" t="n">
+        <v>117500.61</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>72</v>
+      </c>
+      <c r="B72" t="n">
+        <v>111259.71</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>73</v>
+      </c>
+      <c r="B73" t="n">
+        <v>114091.24</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>74</v>
+      </c>
+      <c r="B74" t="n">
+        <v>113265.72</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>75</v>
+      </c>
+      <c r="B75" t="n">
+        <v>110718.78</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>76</v>
+      </c>
+      <c r="B76" t="n">
+        <v>114549.31</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>77</v>
+      </c>
+      <c r="B77" t="n">
+        <v>111101.19</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>78</v>
+      </c>
+      <c r="B78" t="n">
+        <v>113605.75</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>79</v>
+      </c>
+      <c r="B79" t="n">
+        <v>109909.81</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>80</v>
+      </c>
+      <c r="B80" t="n">
+        <v>115067.67</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>81</v>
+      </c>
+      <c r="B81" t="n">
+        <v>110716.14</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>82</v>
+      </c>
+      <c r="B82" t="n">
+        <v>113908.41</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>83</v>
+      </c>
+      <c r="B83" t="n">
+        <v>123778.47</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>84</v>
+      </c>
+      <c r="B84" t="n">
+        <v>124008.29</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>85</v>
+      </c>
+      <c r="B85" t="n">
+        <v>117672.92</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>86</v>
+      </c>
+      <c r="B86" t="n">
+        <v>126454.93</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>87</v>
+      </c>
+      <c r="B87" t="n">
+        <v>115953.61</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>88</v>
+      </c>
+      <c r="B88" t="n">
+        <v>117395.84</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>89</v>
+      </c>
+      <c r="B89" t="n">
+        <v>119411.95</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>90</v>
+      </c>
+      <c r="B90" t="n">
+        <v>123661.69</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>91</v>
+      </c>
+      <c r="B91" t="n">
+        <v>124194.62</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>92</v>
+      </c>
+      <c r="B92" t="n">
+        <v>129300.92</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>93</v>
+      </c>
+      <c r="B93" t="n">
+        <v>128799.29</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>94</v>
+      </c>
+      <c r="B94" t="n">
+        <v>127799.25</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>95</v>
+      </c>
+      <c r="B95" t="n">
+        <v>126811.21</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>96</v>
+      </c>
+      <c r="B96" t="n">
+        <v>129572.47</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>97</v>
+      </c>
+      <c r="B97" t="n">
+        <v>125163.26</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>98</v>
+      </c>
+      <c r="B98" t="n">
+        <v>128940.34</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>99</v>
+      </c>
+      <c r="B99" t="n">
+        <v>126331.64</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>100</v>
+      </c>
+      <c r="B100" t="n">
+        <v>125912.78</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>101</v>
+      </c>
+      <c r="B101" t="n">
+        <v>124445.79</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>102</v>
+      </c>
+      <c r="B102" t="n">
+        <v>127752.78</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>103</v>
+      </c>
+      <c r="B103" t="n">
+        <v>127937.83</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>104</v>
+      </c>
+      <c r="B104" t="n">
+        <v>126506.26</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>105</v>
+      </c>
+      <c r="B105" t="n">
+        <v>128676.63</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>106</v>
+      </c>
+      <c r="B106" t="n">
+        <v>132861.77</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>107</v>
+      </c>
+      <c r="B107" t="n">
+        <v>132572.22</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>108</v>
+      </c>
+      <c r="B108" t="n">
+        <v>128750.61</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>109</v>
+      </c>
+      <c r="B109" t="n">
+        <v>125971.85</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>110</v>
+      </c>
+      <c r="B110" t="n">
+        <v>131425.13</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>111</v>
+      </c>
+      <c r="B111" t="n">
+        <v>124709.88</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>112</v>
+      </c>
+      <c r="B112" t="n">
+        <v>128775.8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>113</v>
+      </c>
+      <c r="B113" t="n">
+        <v>125208.59</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>114</v>
+      </c>
+      <c r="B114" t="n">
+        <v>126739.55</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>115</v>
+      </c>
+      <c r="B115" t="n">
+        <v>130915.91</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>116</v>
+      </c>
+      <c r="B116" t="n">
+        <v>125420.04</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>117</v>
+      </c>
+      <c r="B117" t="n">
+        <v>125691.06</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>118</v>
+      </c>
+      <c r="B118" t="n">
+        <v>124824.25</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>119</v>
+      </c>
+      <c r="B119" t="n">
+        <v>124877</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>120</v>
+      </c>
+      <c r="B120" t="n">
+        <v>127873.62</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>121</v>
+      </c>
+      <c r="B121" t="n">
+        <v>125416.44</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>122</v>
+      </c>
+      <c r="B122" t="n">
+        <v>126279.11</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>123</v>
+      </c>
+      <c r="B123" t="n">
+        <v>126186.5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>124</v>
+      </c>
+      <c r="B124" t="n">
+        <v>127228.67</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>125</v>
+      </c>
+      <c r="B125" t="n">
+        <v>128275.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B125"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" t="n">
+        <v>1893.84</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4514.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>26071</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>30080.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>58866</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n">
+        <v>42952.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>67103.35000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="n">
+        <v>75432.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="n">
+        <v>65156.06</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="n">
+        <v>78624.87</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>92525.10000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>79348.31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="n">
+        <v>79045.36</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="n">
+        <v>87911.62</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="n">
+        <v>86845</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="n">
+        <v>88424.84</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="n">
+        <v>86292.83</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n">
+        <v>93589.10000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n">
+        <v>94233.24000000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n">
+        <v>87260.81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="n">
+        <v>85384.22</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="n">
+        <v>83409.72</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" t="n">
+        <v>92863.19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n">
+        <v>88159.39</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="n">
+        <v>90670.92</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" t="n">
+        <v>92230.08</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" t="n">
+        <v>83997.8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="n">
+        <v>86621.96000000001</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" t="n">
+        <v>91475.67999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" t="n">
+        <v>84095.88</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" t="n">
+        <v>93765.56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32</v>
+      </c>
+      <c r="B32" t="n">
+        <v>99015.17999999999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33</v>
+      </c>
+      <c r="B33" t="n">
+        <v>98075.27</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34</v>
+      </c>
+      <c r="B34" t="n">
+        <v>106733.64</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35</v>
+      </c>
+      <c r="B35" t="n">
+        <v>105073.75</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36</v>
+      </c>
+      <c r="B36" t="n">
+        <v>96131.42999999999</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37</v>
+      </c>
+      <c r="B37" t="n">
+        <v>101649.99</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38</v>
+      </c>
+      <c r="B38" t="n">
+        <v>99291.27</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39</v>
+      </c>
+      <c r="B39" t="n">
+        <v>102444.31</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>40</v>
+      </c>
+      <c r="B40" t="n">
+        <v>101141.18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41</v>
+      </c>
+      <c r="B41" t="n">
+        <v>100260.25</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42</v>
+      </c>
+      <c r="B42" t="n">
+        <v>98543.86</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>43</v>
+      </c>
+      <c r="B43" t="n">
+        <v>96190.89999999999</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>44</v>
+      </c>
+      <c r="B44" t="n">
+        <v>99486.00999999999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>45</v>
+      </c>
+      <c r="B45" t="n">
+        <v>96466.56</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>46</v>
+      </c>
+      <c r="B46" t="n">
+        <v>102159.37</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>47</v>
+      </c>
+      <c r="B47" t="n">
+        <v>106678.53</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48</v>
+      </c>
+      <c r="B48" t="n">
+        <v>104923.88</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>49</v>
+      </c>
+      <c r="B49" t="n">
+        <v>96649.45</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>50</v>
+      </c>
+      <c r="B50" t="n">
+        <v>101985.19</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>51</v>
+      </c>
+      <c r="B51" t="n">
+        <v>97342.19</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52</v>
+      </c>
+      <c r="B52" t="n">
+        <v>102352.6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53</v>
+      </c>
+      <c r="B53" t="n">
+        <v>106156.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54</v>
+      </c>
+      <c r="B54" t="n">
+        <v>107271.34</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>55</v>
+      </c>
+      <c r="B55" t="n">
+        <v>106703.11</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56</v>
+      </c>
+      <c r="B56" t="n">
+        <v>114309.35</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>57</v>
+      </c>
+      <c r="B57" t="n">
+        <v>112174.76</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58</v>
+      </c>
+      <c r="B58" t="n">
+        <v>113527.25</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59</v>
+      </c>
+      <c r="B59" t="n">
+        <v>118827.84</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60</v>
+      </c>
+      <c r="B60" t="n">
+        <v>120047.74</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>61</v>
+      </c>
+      <c r="B61" t="n">
+        <v>105548.24</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>62</v>
+      </c>
+      <c r="B62" t="n">
+        <v>108423.23</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63</v>
+      </c>
+      <c r="B63" t="n">
+        <v>124128.39</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64</v>
+      </c>
+      <c r="B64" t="n">
+        <v>113064.36</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65</v>
+      </c>
+      <c r="B65" t="n">
+        <v>110338.35</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>66</v>
+      </c>
+      <c r="B66" t="n">
+        <v>117724.63</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>67</v>
+      </c>
+      <c r="B67" t="n">
+        <v>118559.01</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>68</v>
+      </c>
+      <c r="B68" t="n">
+        <v>124583.28</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>69</v>
+      </c>
+      <c r="B69" t="n">
+        <v>116653.8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>70</v>
+      </c>
+      <c r="B70" t="n">
+        <v>123349.86</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>71</v>
+      </c>
+      <c r="B71" t="n">
+        <v>117500.61</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>72</v>
+      </c>
+      <c r="B72" t="n">
+        <v>111259.71</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>73</v>
+      </c>
+      <c r="B73" t="n">
+        <v>114091.24</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>74</v>
+      </c>
+      <c r="B74" t="n">
+        <v>113265.72</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>75</v>
+      </c>
+      <c r="B75" t="n">
+        <v>110718.78</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>76</v>
+      </c>
+      <c r="B76" t="n">
+        <v>114549.31</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>77</v>
+      </c>
+      <c r="B77" t="n">
+        <v>111101.19</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>78</v>
+      </c>
+      <c r="B78" t="n">
+        <v>113605.75</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>79</v>
+      </c>
+      <c r="B79" t="n">
+        <v>109909.81</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>80</v>
+      </c>
+      <c r="B80" t="n">
+        <v>115067.67</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>81</v>
+      </c>
+      <c r="B81" t="n">
+        <v>110716.14</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>82</v>
+      </c>
+      <c r="B82" t="n">
+        <v>113908.41</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>83</v>
+      </c>
+      <c r="B83" t="n">
+        <v>123778.47</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>84</v>
+      </c>
+      <c r="B84" t="n">
+        <v>124008.29</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>85</v>
+      </c>
+      <c r="B85" t="n">
+        <v>117672.92</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>86</v>
+      </c>
+      <c r="B86" t="n">
+        <v>126454.93</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>87</v>
+      </c>
+      <c r="B87" t="n">
+        <v>115953.61</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>88</v>
+      </c>
+      <c r="B88" t="n">
+        <v>117395.84</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>89</v>
+      </c>
+      <c r="B89" t="n">
+        <v>119411.95</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>90</v>
+      </c>
+      <c r="B90" t="n">
+        <v>123661.69</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>91</v>
+      </c>
+      <c r="B91" t="n">
+        <v>124194.62</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>92</v>
+      </c>
+      <c r="B92" t="n">
+        <v>129300.92</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>93</v>
+      </c>
+      <c r="B93" t="n">
+        <v>128799.29</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>94</v>
+      </c>
+      <c r="B94" t="n">
+        <v>127799.25</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>95</v>
+      </c>
+      <c r="B95" t="n">
+        <v>126811.21</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>96</v>
+      </c>
+      <c r="B96" t="n">
+        <v>129572.47</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>97</v>
+      </c>
+      <c r="B97" t="n">
+        <v>125163.26</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>98</v>
+      </c>
+      <c r="B98" t="n">
+        <v>128940.34</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>99</v>
+      </c>
+      <c r="B99" t="n">
+        <v>126331.64</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>100</v>
+      </c>
+      <c r="B100" t="n">
+        <v>125912.78</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>101</v>
+      </c>
+      <c r="B101" t="n">
+        <v>124445.79</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>102</v>
+      </c>
+      <c r="B102" t="n">
+        <v>127752.78</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>103</v>
+      </c>
+      <c r="B103" t="n">
+        <v>127937.83</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>104</v>
+      </c>
+      <c r="B104" t="n">
+        <v>126506.26</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>105</v>
+      </c>
+      <c r="B105" t="n">
+        <v>128676.63</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>106</v>
+      </c>
+      <c r="B106" t="n">
+        <v>132861.77</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>107</v>
+      </c>
+      <c r="B107" t="n">
+        <v>132572.22</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>108</v>
+      </c>
+      <c r="B108" t="n">
+        <v>128750.61</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>109</v>
+      </c>
+      <c r="B109" t="n">
+        <v>125971.85</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>110</v>
+      </c>
+      <c r="B110" t="n">
+        <v>131425.13</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>111</v>
+      </c>
+      <c r="B111" t="n">
+        <v>124709.88</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>112</v>
+      </c>
+      <c r="B112" t="n">
+        <v>128775.8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>113</v>
+      </c>
+      <c r="B113" t="n">
+        <v>125208.59</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>114</v>
+      </c>
+      <c r="B114" t="n">
+        <v>126739.55</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>115</v>
+      </c>
+      <c r="B115" t="n">
+        <v>130915.91</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>116</v>
+      </c>
+      <c r="B116" t="n">
+        <v>125420.04</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>117</v>
+      </c>
+      <c r="B117" t="n">
+        <v>125691.06</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>118</v>
+      </c>
+      <c r="B118" t="n">
+        <v>124824.25</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>119</v>
+      </c>
+      <c r="B119" t="n">
+        <v>124877</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>120</v>
+      </c>
+      <c r="B120" t="n">
+        <v>127873.62</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>121</v>
+      </c>
+      <c r="B121" t="n">
+        <v>125416.44</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>122</v>
+      </c>
+      <c r="B122" t="n">
+        <v>126279.11</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>123</v>
+      </c>
+      <c r="B123" t="n">
+        <v>126186.5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>124</v>
+      </c>
+      <c r="B124" t="n">
+        <v>127228.67</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>125</v>
+      </c>
+      <c r="B125" t="n">
+        <v>128275.06</v>
       </c>
     </row>
   </sheetData>
